--- a/tables/log-odds/binaryattitude4.xlsx
+++ b/tables/log-odds/binaryattitude4.xlsx
@@ -31331,13 +31331,13 @@
         <v>0.67679180468535671</v>
       </c>
       <c r="C3" s="43">
-        <v>0.54782123939200777</v>
+        <v>0.54782123939200789</v>
       </c>
       <c r="D3" s="46">
-        <v>-0.42106649229318771</v>
+        <v>-0.42106649229318793</v>
       </c>
       <c r="E3" s="49">
-        <v>1.7746501016639011</v>
+        <v>1.7746501016639014</v>
       </c>
     </row>
     <row r="4">
@@ -31348,10 +31348,10 @@
         <v>0.11326002119367543</v>
       </c>
       <c r="C4" s="61">
-        <v>0.48800571355815386</v>
+        <v>0.48800571355815392</v>
       </c>
       <c r="D4" s="65">
-        <v>-0.86472528327783726</v>
+        <v>-0.86472528327783738</v>
       </c>
       <c r="E4" s="69">
         <v>1.0912453256651882</v>
@@ -31648,13 +31648,13 @@
         <v>0.075232358990521567</v>
       </c>
       <c r="C3" s="838">
-        <v>0.60031376637751399</v>
+        <v>0.60031376637751366</v>
       </c>
       <c r="D3" s="842">
-        <v>-1.127823312854991</v>
+        <v>-1.1278233128549904</v>
       </c>
       <c r="E3" s="846">
-        <v>1.278288030836034</v>
+        <v>1.2782880308360334</v>
       </c>
     </row>
   </sheetData>
@@ -31708,13 +31708,13 @@
         <v>-0.4982946333854299</v>
       </c>
       <c r="C3" s="892">
-        <v>0.39640462077908228</v>
+        <v>0.39640462077908234</v>
       </c>
       <c r="D3" s="896">
-        <v>-1.2927072457294595</v>
+        <v>-1.2927072457294597</v>
       </c>
       <c r="E3" s="900">
-        <v>0.29611797895859981</v>
+        <v>0.29611797895859993</v>
       </c>
     </row>
   </sheetData>
@@ -31768,13 +31768,13 @@
         <v>-0.22826736345523493</v>
       </c>
       <c r="C3" s="946">
-        <v>0.37387152091886322</v>
+        <v>0.37387152091886316</v>
       </c>
       <c r="D3" s="950">
-        <v>-0.97752263457305932</v>
+        <v>-0.97752263457305921</v>
       </c>
       <c r="E3" s="954">
-        <v>0.52098790766258951</v>
+        <v>0.5209879076625894</v>
       </c>
     </row>
   </sheetData>
@@ -31888,13 +31888,13 @@
         <v>0.70093947119817601</v>
       </c>
       <c r="C3" s="1051">
-        <v>0.55753939769800576</v>
+        <v>0.55753939769800565</v>
       </c>
       <c r="D3" s="1054">
-        <v>-0.41639445023668165</v>
+        <v>-0.41639445023668142</v>
       </c>
       <c r="E3" s="1057">
-        <v>1.8182733926330337</v>
+        <v>1.8182733926330334</v>
       </c>
     </row>
     <row r="4">
@@ -31965,13 +31965,13 @@
         <v>-0.29600045899233629</v>
       </c>
       <c r="C3" s="1123">
-        <v>0.37392898558204435</v>
+        <v>0.37392898558204429</v>
       </c>
       <c r="D3" s="1127">
         <v>-1.0453708918686324</v>
       </c>
       <c r="E3" s="1131">
-        <v>0.45336997388395983</v>
+        <v>0.45336997388395972</v>
       </c>
     </row>
   </sheetData>
@@ -32256,13 +32256,13 @@
         <v>-0.53658754793315022</v>
       </c>
       <c r="C3" s="1330">
-        <v>0.48745813414857336</v>
+        <v>0.48745813414857342</v>
       </c>
       <c r="D3" s="1334">
-        <v>-1.5134754787454565</v>
+        <v>-1.5134754787454567</v>
       </c>
       <c r="E3" s="1338">
-        <v>0.44030038287915607</v>
+        <v>0.44030038287915618</v>
       </c>
     </row>
   </sheetData>
@@ -32376,13 +32376,13 @@
         <v>0.61316073738573473</v>
       </c>
       <c r="C3" s="1435">
-        <v>0.42515195385238069</v>
+        <v>0.42515195385238075</v>
       </c>
       <c r="D3" s="1438">
-        <v>-0.238862817837314</v>
+        <v>-0.23886281783731411</v>
       </c>
       <c r="E3" s="1441">
-        <v>1.4651842926087835</v>
+        <v>1.4651842926087837</v>
       </c>
     </row>
     <row r="4">
@@ -32393,13 +32393,13 @@
         <v>0.50971511251808699</v>
       </c>
       <c r="C4" s="1453">
-        <v>0.50595308365446456</v>
+        <v>0.50595308365446467</v>
       </c>
       <c r="D4" s="1457">
-        <v>-0.50423752536869659</v>
+        <v>-0.50423752536869682</v>
       </c>
       <c r="E4" s="1461">
-        <v>1.5236677504048706</v>
+        <v>1.5236677504048708</v>
       </c>
     </row>
   </sheetData>
@@ -32590,13 +32590,13 @@
         <v>-0.07660561330465411</v>
       </c>
       <c r="C3" s="1630">
-        <v>0.43418615251016501</v>
+        <v>0.43418615251016496</v>
       </c>
       <c r="D3" s="1634">
-        <v>-0.94673410721903328</v>
+        <v>-0.94673410721903317</v>
       </c>
       <c r="E3" s="1638">
-        <v>0.79352288060972509</v>
+        <v>0.79352288060972498</v>
       </c>
     </row>
   </sheetData>
@@ -32650,13 +32650,13 @@
         <v>-0.20160283756066638</v>
       </c>
       <c r="C3" s="1684">
-        <v>0.39266366873869302</v>
+        <v>0.39266366873869313</v>
       </c>
       <c r="D3" s="1688">
-        <v>-0.98851841448361921</v>
+        <v>-0.98851841448361943</v>
       </c>
       <c r="E3" s="1692">
-        <v>0.58531273936228634</v>
+        <v>0.58531273936228656</v>
       </c>
     </row>
   </sheetData>
@@ -32924,13 +32924,13 @@
         <v>-0.17396096934816971</v>
       </c>
       <c r="C3" s="1846">
-        <v>0.55944670962557186</v>
+        <v>0.55944670962557175</v>
       </c>
       <c r="D3" s="1850">
-        <v>-1.2951172293015714</v>
+        <v>-1.2951172293015711</v>
       </c>
       <c r="E3" s="1854">
-        <v>0.947195290605232</v>
+        <v>0.94719529060523178</v>
       </c>
     </row>
   </sheetData>
@@ -33104,13 +33104,13 @@
         <v>-1.0644736154857648</v>
       </c>
       <c r="C3" s="2008">
-        <v>0.49393826052536871</v>
+        <v>0.49393826052536866</v>
       </c>
       <c r="D3" s="2012">
         <v>-2.054348009758542</v>
       </c>
       <c r="E3" s="2016">
-        <v>-0.074599221212987454</v>
+        <v>-0.074599221212987565</v>
       </c>
     </row>
   </sheetData>
@@ -33361,10 +33361,10 @@
         <v>0.59714338658637967</v>
       </c>
       <c r="C3" s="427">
-        <v>0.42053539515323879</v>
+        <v>0.42053539515323873</v>
       </c>
       <c r="D3" s="430">
-        <v>-0.24562837825890571</v>
+        <v>-0.2456283782589056</v>
       </c>
       <c r="E3" s="433">
         <v>1.439915151431665</v>
@@ -33438,10 +33438,10 @@
         <v>0.8281624000034199</v>
       </c>
       <c r="C3" s="499">
-        <v>0.38787457451276414</v>
+        <v>0.38787457451276419</v>
       </c>
       <c r="D3" s="503">
-        <v>0.050844382380620057</v>
+        <v>0.050844382380619946</v>
       </c>
       <c r="E3" s="507">
         <v>1.6054804176262198</v>
@@ -33498,13 +33498,13 @@
         <v>-0.93534642632755349</v>
       </c>
       <c r="C3" s="550">
-        <v>0.52794461963322326</v>
+        <v>0.52794461963322337</v>
       </c>
       <c r="D3" s="553">
-        <v>-1.993371087169084</v>
+        <v>-1.9933710871690842</v>
       </c>
       <c r="E3" s="556">
-        <v>0.12267823451397697</v>
+        <v>0.12267823451397719</v>
       </c>
     </row>
     <row r="4">
